--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tao/OneDrive/learnDL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25120" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,8 +346,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -342,9 +342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -353,6 +355,11 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
